--- a/biology/Botanique/Photinia_glabra/Photinia_glabra.xlsx
+++ b/biology/Botanique/Photinia_glabra/Photinia_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Photinia glabra est une espèce de plante à fleurs de la famille des Rosacées. Elle est originaire de Chine.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Photinia glabra est un arbre à feuilles persistantes, pouvant atteindre de 3 à 5m de haut, et plus rarement jusqu'à 7 m de haut. Il possède des rameaux bruns à brun grisâtre lorsqu'ils sont jeunes, noir grisâtre lorsqu'ils sont vieux, glabres avec des lenticelles brunes éparses noires orbiculaires ; et des pousses étroitement ovales de 3-5 mm, avec des écailles brun foncé et glabres. Le pétiole mesure 1-1,5 cm ; et possède une lamelle rougeâtre, elliptique et oblongue. Les inflorescences sont des corymbes avec de nombreuses fleurs, au rachis et aux pédicelles glabres. Ses fruits sont rouges, ovoïdes et d'environ 5 mm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Photinia glabra est un arbre à feuilles persistantes, pouvant atteindre de 3 à 5m de haut, et plus rarement jusqu'à 7 m de haut. Il possède des rameaux bruns à brun grisâtre lorsqu'ils sont jeunes, noir grisâtre lorsqu'ils sont vieux, glabres avec des lenticelles brunes éparses noires orbiculaires ; et des pousses étroitement ovales de 3-5 mm, avec des écailles brun foncé et glabres. Le pétiole mesure 1-1,5 cm ; et possède une lamelle rougeâtre, elliptique et oblongue. Les inflorescences sont des corymbes avec de nombreuses fleurs, au rachis et aux pédicelles glabres. Ses fruits sont rouges, ovoïdes et d'environ 5 mm.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'état sauvage, cette espèce pousse sur les terrains accidentés, à une altitude généralement comprise entre 500 et 800m, en Chine, Birmanie, Thaïlande et au Japon.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Photinia glabra a été décrite par (Carl Peter Thunberg) Maxim. et publiée dans le Bulletin de l'Academie Imperiale des Sciences de St-Petersbourg 19(2): 178 en 1873[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Photinia glabra a été décrite par (Carl Peter Thunberg) Maxim. et publiée dans le Bulletin de l'Academie Imperiale des Sciences de St-Petersbourg 19(2): 178 en 1873.
 </t>
         </is>
       </c>
